--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3548">
   <si>
     <t>$id</t>
   </si>
@@ -3084,10 +3084,10 @@
     <t>EVT?[10359,10365]</t>
   </si>
   <si>
-    <t>STR&gt;1000:10360</t>
-  </si>
-  <si>
-    <t>STR&lt;1000:10000</t>
+    <t>STR&gt;100:10360</t>
+  </si>
+  <si>
+    <t>STR&lt;100:10000</t>
   </si>
   <si>
     <t>你将其越级反杀。</t>
@@ -9391,9 +9391,6 @@
   </si>
   <si>
     <t>EVT?[11277]</t>
-  </si>
-  <si>
-    <t>STR&lt;100:10000</t>
   </si>
   <si>
     <t>你被一个骗子骗得倾家荡产。</t>
@@ -11269,17 +11266,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -11307,10 +11304,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -11558,12 +11555,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -11850,7 +11847,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -11878,10 +11875,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -46100,7 +46097,7 @@
         <v>3111</v>
       </c>
       <c r="M1359" t="s" s="26">
-        <v>3112</v>
+        <v>1010</v>
       </c>
       <c r="N1359" s="23"/>
     </row>
@@ -46109,7 +46106,7 @@
         <v>11278</v>
       </c>
       <c r="B1360" t="s" s="17">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="C1360" s="18"/>
       <c r="D1360" s="19"/>
@@ -46124,10 +46121,10 @@
       <c r="I1360" s="19"/>
       <c r="J1360" s="19"/>
       <c r="K1360" t="s" s="24">
+        <v>3113</v>
+      </c>
+      <c r="L1360" t="s" s="24">
         <v>3114</v>
-      </c>
-      <c r="L1360" t="s" s="24">
-        <v>3115</v>
       </c>
       <c r="M1360" s="22"/>
       <c r="N1360" s="23"/>
@@ -46137,7 +46134,7 @@
         <v>11279</v>
       </c>
       <c r="B1361" t="s" s="17">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="C1361" s="18"/>
       <c r="D1361" s="19"/>
@@ -46151,7 +46148,7 @@
         <v>2812</v>
       </c>
       <c r="L1361" t="s" s="24">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="M1361" s="22"/>
       <c r="N1361" s="23"/>
@@ -46161,7 +46158,7 @@
         <v>11280</v>
       </c>
       <c r="B1362" t="s" s="17">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="C1362" s="18"/>
       <c r="D1362" s="19"/>
@@ -46172,10 +46169,10 @@
       <c r="I1362" s="19"/>
       <c r="J1362" s="19"/>
       <c r="K1362" t="s" s="24">
+        <v>3118</v>
+      </c>
+      <c r="L1362" t="s" s="24">
         <v>3119</v>
-      </c>
-      <c r="L1362" t="s" s="24">
-        <v>3120</v>
       </c>
       <c r="M1362" s="22"/>
       <c r="N1362" s="23"/>
@@ -46185,7 +46182,7 @@
         <v>11281</v>
       </c>
       <c r="B1363" t="s" s="17">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="C1363" s="18"/>
       <c r="D1363" s="19"/>
@@ -46199,7 +46196,7 @@
         <v>2137</v>
       </c>
       <c r="L1363" t="s" s="24">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="M1363" s="22"/>
       <c r="N1363" s="23"/>
@@ -46209,7 +46206,7 @@
         <v>11282</v>
       </c>
       <c r="B1364" t="s" s="17">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="C1364" s="18"/>
       <c r="D1364" s="19"/>
@@ -46223,7 +46220,7 @@
         <v>2137</v>
       </c>
       <c r="L1364" t="s" s="24">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="M1364" s="22"/>
       <c r="N1364" s="23"/>
@@ -46233,7 +46230,7 @@
         <v>11283</v>
       </c>
       <c r="B1365" t="s" s="17">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="C1365" s="18"/>
       <c r="D1365" s="19"/>
@@ -46247,7 +46244,7 @@
         <v>2137</v>
       </c>
       <c r="L1365" t="s" s="24">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="M1365" s="22"/>
       <c r="N1365" s="23"/>
@@ -46257,7 +46254,7 @@
         <v>11284</v>
       </c>
       <c r="B1366" t="s" s="17">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="C1366" s="18"/>
       <c r="D1366" s="19"/>
@@ -46271,7 +46268,7 @@
         <v>3090</v>
       </c>
       <c r="L1366" t="s" s="24">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="M1366" s="22"/>
       <c r="N1366" s="23"/>
@@ -46281,10 +46278,10 @@
         <v>11285</v>
       </c>
       <c r="B1367" t="s" s="17">
+        <v>3128</v>
+      </c>
+      <c r="C1367" t="s" s="25">
         <v>3129</v>
-      </c>
-      <c r="C1367" t="s" s="25">
-        <v>3130</v>
       </c>
       <c r="D1367" s="19"/>
       <c r="E1367" s="19"/>
@@ -46297,7 +46294,7 @@
         <v>2137</v>
       </c>
       <c r="L1367" t="s" s="24">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="M1367" s="22"/>
       <c r="N1367" s="23"/>
@@ -46307,7 +46304,7 @@
         <v>11286</v>
       </c>
       <c r="B1368" t="s" s="17">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="C1368" s="18"/>
       <c r="D1368" s="19"/>
@@ -46318,7 +46315,7 @@
       <c r="I1368" s="19"/>
       <c r="J1368" s="19"/>
       <c r="K1368" t="s" s="24">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="L1368" s="21"/>
       <c r="M1368" s="22"/>
@@ -46329,7 +46326,7 @@
         <v>11287</v>
       </c>
       <c r="B1369" t="s" s="17">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="C1369" s="18"/>
       <c r="D1369" s="19"/>
@@ -46340,10 +46337,10 @@
       <c r="I1369" s="19"/>
       <c r="J1369" s="19"/>
       <c r="K1369" t="s" s="24">
+        <v>3134</v>
+      </c>
+      <c r="L1369" t="s" s="24">
         <v>3135</v>
-      </c>
-      <c r="L1369" t="s" s="24">
-        <v>3136</v>
       </c>
       <c r="M1369" s="22"/>
       <c r="N1369" s="23"/>
@@ -46353,10 +46350,10 @@
         <v>11288</v>
       </c>
       <c r="B1370" t="s" s="17">
+        <v>3136</v>
+      </c>
+      <c r="C1370" t="s" s="25">
         <v>3137</v>
-      </c>
-      <c r="C1370" t="s" s="25">
-        <v>3138</v>
       </c>
       <c r="D1370" s="19"/>
       <c r="E1370" s="19"/>
@@ -46366,10 +46363,10 @@
       <c r="I1370" s="19"/>
       <c r="J1370" s="19"/>
       <c r="K1370" t="s" s="24">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="L1370" t="s" s="24">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="M1370" s="22"/>
       <c r="N1370" s="23"/>
@@ -46379,10 +46376,10 @@
         <v>11289</v>
       </c>
       <c r="B1371" t="s" s="17">
+        <v>3139</v>
+      </c>
+      <c r="C1371" t="s" s="25">
         <v>3140</v>
-      </c>
-      <c r="C1371" t="s" s="25">
-        <v>3141</v>
       </c>
       <c r="D1371" s="19"/>
       <c r="E1371" s="19"/>
@@ -46392,10 +46389,10 @@
       <c r="I1371" s="19"/>
       <c r="J1371" s="19"/>
       <c r="K1371" t="s" s="24">
+        <v>3141</v>
+      </c>
+      <c r="L1371" t="s" s="24">
         <v>3142</v>
-      </c>
-      <c r="L1371" t="s" s="24">
-        <v>3143</v>
       </c>
       <c r="M1371" s="22"/>
       <c r="N1371" s="23"/>
@@ -46405,10 +46402,10 @@
         <v>11290</v>
       </c>
       <c r="B1372" t="s" s="17">
+        <v>3143</v>
+      </c>
+      <c r="C1372" t="s" s="25">
         <v>3144</v>
-      </c>
-      <c r="C1372" t="s" s="25">
-        <v>3145</v>
       </c>
       <c r="D1372" s="20">
         <v>-1</v>
@@ -46426,10 +46423,10 @@
       <c r="I1372" s="19"/>
       <c r="J1372" s="19"/>
       <c r="K1372" t="s" s="24">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="L1372" t="s" s="24">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="M1372" s="22"/>
       <c r="N1372" s="23"/>
@@ -46439,10 +46436,10 @@
         <v>11291</v>
       </c>
       <c r="B1373" t="s" s="17">
+        <v>3146</v>
+      </c>
+      <c r="C1373" t="s" s="25">
         <v>3147</v>
-      </c>
-      <c r="C1373" t="s" s="25">
-        <v>3148</v>
       </c>
       <c r="D1373" s="19"/>
       <c r="E1373" s="20">
@@ -46458,11 +46455,11 @@
       <c r="I1373" s="19"/>
       <c r="J1373" s="19"/>
       <c r="K1373" t="s" s="24">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="L1373" s="21"/>
       <c r="M1373" t="s" s="26">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="N1373" s="23"/>
     </row>
@@ -46471,7 +46468,7 @@
         <v>11292</v>
       </c>
       <c r="B1374" t="s" s="17">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="C1374" s="18"/>
       <c r="D1374" s="19"/>
@@ -46482,10 +46479,10 @@
       <c r="I1374" s="19"/>
       <c r="J1374" s="19"/>
       <c r="K1374" t="s" s="24">
+        <v>3150</v>
+      </c>
+      <c r="L1374" t="s" s="24">
         <v>3151</v>
-      </c>
-      <c r="L1374" t="s" s="24">
-        <v>3152</v>
       </c>
       <c r="M1374" s="22"/>
       <c r="N1374" s="23"/>
@@ -46495,10 +46492,10 @@
         <v>11293</v>
       </c>
       <c r="B1375" t="s" s="17">
+        <v>3152</v>
+      </c>
+      <c r="C1375" t="s" s="25">
         <v>3153</v>
-      </c>
-      <c r="C1375" t="s" s="25">
-        <v>3154</v>
       </c>
       <c r="D1375" s="19"/>
       <c r="E1375" s="19"/>
@@ -46508,10 +46505,10 @@
       <c r="I1375" s="19"/>
       <c r="J1375" s="19"/>
       <c r="K1375" t="s" s="24">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="L1375" t="s" s="24">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="M1375" s="22"/>
       <c r="N1375" s="23"/>
@@ -46521,7 +46518,7 @@
         <v>11294</v>
       </c>
       <c r="B1376" t="s" s="17">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="C1376" s="18"/>
       <c r="D1376" s="19"/>
@@ -46532,10 +46529,10 @@
       <c r="I1376" s="19"/>
       <c r="J1376" s="19"/>
       <c r="K1376" t="s" s="24">
+        <v>3156</v>
+      </c>
+      <c r="L1376" t="s" s="24">
         <v>3157</v>
-      </c>
-      <c r="L1376" t="s" s="24">
-        <v>3158</v>
       </c>
       <c r="M1376" s="22"/>
       <c r="N1376" s="23"/>
@@ -46556,10 +46553,10 @@
       <c r="I1377" s="19"/>
       <c r="J1377" s="19"/>
       <c r="K1377" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1377" t="s" s="24">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="M1377" s="22"/>
       <c r="N1377" s="23"/>
@@ -46569,7 +46566,7 @@
         <v>11296</v>
       </c>
       <c r="B1378" t="s" s="17">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="C1378" s="18"/>
       <c r="D1378" s="19"/>
@@ -46580,13 +46577,13 @@
       <c r="I1378" s="19"/>
       <c r="J1378" s="19"/>
       <c r="K1378" t="s" s="24">
+        <v>3160</v>
+      </c>
+      <c r="L1378" t="s" s="24">
         <v>3161</v>
       </c>
-      <c r="L1378" t="s" s="24">
+      <c r="M1378" t="s" s="26">
         <v>3162</v>
-      </c>
-      <c r="M1378" t="s" s="26">
-        <v>3163</v>
       </c>
       <c r="N1378" s="23"/>
     </row>
@@ -46595,7 +46592,7 @@
         <v>21296</v>
       </c>
       <c r="B1379" t="s" s="17">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="C1379" s="18"/>
       <c r="D1379" s="19"/>
@@ -46610,7 +46607,7 @@
       <c r="K1379" s="21"/>
       <c r="L1379" s="21"/>
       <c r="M1379" t="s" s="26">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="N1379" s="23"/>
     </row>
@@ -46619,7 +46616,7 @@
         <v>21297</v>
       </c>
       <c r="B1380" t="s" s="17">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="C1380" s="18"/>
       <c r="D1380" s="19"/>
@@ -46634,7 +46631,7 @@
       <c r="K1380" s="21"/>
       <c r="L1380" s="21"/>
       <c r="M1380" t="s" s="26">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="N1380" s="23"/>
     </row>
@@ -46643,7 +46640,7 @@
         <v>21298</v>
       </c>
       <c r="B1381" t="s" s="17">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="C1381" s="18"/>
       <c r="D1381" s="19"/>
@@ -46658,7 +46655,7 @@
       <c r="K1381" s="21"/>
       <c r="L1381" s="21"/>
       <c r="M1381" t="s" s="26">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="N1381" s="23"/>
     </row>
@@ -46667,7 +46664,7 @@
         <v>21299</v>
       </c>
       <c r="B1382" t="s" s="17">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="C1382" s="18"/>
       <c r="D1382" s="19"/>
@@ -46682,7 +46679,7 @@
       <c r="K1382" s="21"/>
       <c r="L1382" s="21"/>
       <c r="M1382" t="s" s="26">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="N1382" s="23"/>
     </row>
@@ -46691,7 +46688,7 @@
         <v>21300</v>
       </c>
       <c r="B1383" t="s" s="17">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="C1383" s="18"/>
       <c r="D1383" s="19"/>
@@ -46706,7 +46703,7 @@
       <c r="K1383" s="21"/>
       <c r="L1383" s="21"/>
       <c r="M1383" t="s" s="26">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="N1383" s="23"/>
     </row>
@@ -46715,7 +46712,7 @@
         <v>21301</v>
       </c>
       <c r="B1384" t="s" s="17">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="C1384" s="18"/>
       <c r="D1384" s="19"/>
@@ -46730,7 +46727,7 @@
       <c r="K1384" s="21"/>
       <c r="L1384" s="21"/>
       <c r="M1384" t="s" s="26">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="N1384" s="23"/>
     </row>
@@ -46739,7 +46736,7 @@
         <v>21302</v>
       </c>
       <c r="B1385" t="s" s="17">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="C1385" s="18"/>
       <c r="D1385" s="19"/>
@@ -46754,7 +46751,7 @@
       <c r="K1385" s="21"/>
       <c r="L1385" s="21"/>
       <c r="M1385" t="s" s="26">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="N1385" s="23"/>
     </row>
@@ -46763,7 +46760,7 @@
         <v>21303</v>
       </c>
       <c r="B1386" t="s" s="17">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="C1386" s="18"/>
       <c r="D1386" s="19"/>
@@ -46778,7 +46775,7 @@
       <c r="K1386" s="21"/>
       <c r="L1386" s="21"/>
       <c r="M1386" t="s" s="26">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="N1386" s="23"/>
     </row>
@@ -46787,7 +46784,7 @@
         <v>21304</v>
       </c>
       <c r="B1387" t="s" s="17">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="C1387" s="18"/>
       <c r="D1387" s="19"/>
@@ -46809,7 +46806,7 @@
         <v>21305</v>
       </c>
       <c r="B1388" t="s" s="17">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="C1388" s="18"/>
       <c r="D1388" s="19"/>
@@ -46820,13 +46817,13 @@
       <c r="I1388" s="19"/>
       <c r="J1388" s="19"/>
       <c r="K1388" t="s" s="24">
+        <v>3181</v>
+      </c>
+      <c r="L1388" t="s" s="24">
         <v>3182</v>
       </c>
-      <c r="L1388" t="s" s="24">
+      <c r="M1388" t="s" s="26">
         <v>3183</v>
-      </c>
-      <c r="M1388" t="s" s="26">
-        <v>3184</v>
       </c>
       <c r="N1388" s="23"/>
     </row>
@@ -46835,7 +46832,7 @@
         <v>21306</v>
       </c>
       <c r="B1389" t="s" s="17">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="C1389" s="18"/>
       <c r="D1389" s="19"/>
@@ -46850,10 +46847,10 @@
       <c r="K1389" s="21"/>
       <c r="L1389" s="21"/>
       <c r="M1389" t="s" s="26">
+        <v>3185</v>
+      </c>
+      <c r="N1389" t="s" s="27">
         <v>3186</v>
-      </c>
-      <c r="N1389" t="s" s="27">
-        <v>3187</v>
       </c>
     </row>
     <row r="1390" ht="30" customHeight="1">
@@ -46861,7 +46858,7 @@
         <v>21307</v>
       </c>
       <c r="B1390" t="s" s="17">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="C1390" s="18"/>
       <c r="D1390" s="19"/>
@@ -46883,7 +46880,7 @@
         <v>21308</v>
       </c>
       <c r="B1391" t="s" s="17">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="C1391" s="18"/>
       <c r="D1391" s="19"/>
@@ -46898,7 +46895,7 @@
       <c r="K1391" s="21"/>
       <c r="L1391" s="21"/>
       <c r="M1391" t="s" s="26">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="N1391" s="23"/>
     </row>
@@ -46907,7 +46904,7 @@
         <v>11297</v>
       </c>
       <c r="B1392" t="s" s="17">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="C1392" s="18"/>
       <c r="D1392" s="19"/>
@@ -46921,7 +46918,7 @@
         <v>3073</v>
       </c>
       <c r="L1392" t="s" s="24">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="M1392" s="22"/>
       <c r="N1392" s="23"/>
@@ -46931,7 +46928,7 @@
         <v>11298</v>
       </c>
       <c r="B1393" t="s" s="17">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="C1393" s="18"/>
       <c r="D1393" s="19"/>
@@ -46945,7 +46942,7 @@
         <v>2137</v>
       </c>
       <c r="L1393" t="s" s="24">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="M1393" s="22"/>
       <c r="N1393" s="23"/>
@@ -46955,7 +46952,7 @@
         <v>11299</v>
       </c>
       <c r="B1394" t="s" s="17">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="C1394" s="18"/>
       <c r="D1394" s="19"/>
@@ -46966,10 +46963,10 @@
       <c r="I1394" s="19"/>
       <c r="J1394" s="19"/>
       <c r="K1394" t="s" s="24">
+        <v>3195</v>
+      </c>
+      <c r="L1394" t="s" s="24">
         <v>3196</v>
-      </c>
-      <c r="L1394" t="s" s="24">
-        <v>3197</v>
       </c>
       <c r="M1394" t="s" s="26">
         <v>2980</v>
@@ -46981,7 +46978,7 @@
         <v>11300</v>
       </c>
       <c r="B1395" t="s" s="17">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="C1395" s="18"/>
       <c r="D1395" s="19"/>
@@ -46995,7 +46992,7 @@
         <v>3075</v>
       </c>
       <c r="L1395" t="s" s="24">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="M1395" s="22"/>
       <c r="N1395" s="23"/>
@@ -47005,7 +47002,7 @@
         <v>11301</v>
       </c>
       <c r="B1396" t="s" s="17">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="C1396" s="18"/>
       <c r="D1396" s="19"/>
@@ -47016,10 +47013,10 @@
       <c r="I1396" s="19"/>
       <c r="J1396" s="19"/>
       <c r="K1396" t="s" s="24">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="L1396" t="s" s="24">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="M1396" s="22"/>
       <c r="N1396" s="23"/>
@@ -47029,7 +47026,7 @@
         <v>11302</v>
       </c>
       <c r="B1397" t="s" s="17">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="C1397" s="18"/>
       <c r="D1397" s="19"/>
@@ -47040,10 +47037,10 @@
       <c r="I1397" s="19"/>
       <c r="J1397" s="19"/>
       <c r="K1397" t="s" s="24">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="L1397" t="s" s="24">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="M1397" s="22"/>
       <c r="N1397" s="23"/>
@@ -47053,7 +47050,7 @@
         <v>11303</v>
       </c>
       <c r="B1398" t="s" s="17">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C1398" s="18"/>
       <c r="D1398" s="19"/>
@@ -47064,10 +47061,10 @@
       <c r="I1398" s="19"/>
       <c r="J1398" s="19"/>
       <c r="K1398" t="s" s="24">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="L1398" t="s" s="24">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="M1398" s="22"/>
       <c r="N1398" s="23"/>
@@ -47077,10 +47074,10 @@
         <v>11304</v>
       </c>
       <c r="B1399" t="s" s="17">
+        <v>3205</v>
+      </c>
+      <c r="C1399" t="s" s="25">
         <v>3206</v>
-      </c>
-      <c r="C1399" t="s" s="25">
-        <v>3207</v>
       </c>
       <c r="D1399" s="19"/>
       <c r="E1399" s="19"/>
@@ -47090,10 +47087,10 @@
       <c r="I1399" s="19"/>
       <c r="J1399" s="19"/>
       <c r="K1399" t="s" s="24">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="L1399" t="s" s="24">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="M1399" s="22"/>
       <c r="N1399" s="23"/>
@@ -47103,7 +47100,7 @@
         <v>11305</v>
       </c>
       <c r="B1400" t="s" s="17">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="C1400" s="18"/>
       <c r="D1400" s="19"/>
@@ -47117,7 +47114,7 @@
         <v>2137</v>
       </c>
       <c r="L1400" t="s" s="24">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="M1400" s="22"/>
       <c r="N1400" s="23"/>
@@ -47127,7 +47124,7 @@
         <v>11306</v>
       </c>
       <c r="B1401" t="s" s="17">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="C1401" s="18"/>
       <c r="D1401" s="19"/>
@@ -47141,7 +47138,7 @@
         <v>2137</v>
       </c>
       <c r="L1401" t="s" s="24">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="M1401" t="s" s="26">
         <v>2980</v>
@@ -47153,7 +47150,7 @@
         <v>11307</v>
       </c>
       <c r="B1402" t="s" s="17">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="C1402" s="18"/>
       <c r="D1402" s="19"/>
@@ -47179,7 +47176,7 @@
         <v>11308</v>
       </c>
       <c r="B1403" t="s" s="17">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="C1403" s="18"/>
       <c r="D1403" s="19"/>
@@ -47203,7 +47200,7 @@
         <v>11309</v>
       </c>
       <c r="B1404" t="s" s="17">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="C1404" s="18"/>
       <c r="D1404" s="19"/>
@@ -47214,10 +47211,10 @@
       <c r="I1404" s="19"/>
       <c r="J1404" s="19"/>
       <c r="K1404" t="s" s="24">
+        <v>3215</v>
+      </c>
+      <c r="L1404" t="s" s="24">
         <v>3216</v>
-      </c>
-      <c r="L1404" t="s" s="24">
-        <v>3217</v>
       </c>
       <c r="M1404" t="s" s="26">
         <v>2980</v>
@@ -47243,7 +47240,7 @@
         <v>2137</v>
       </c>
       <c r="L1405" t="s" s="24">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="M1405" t="s" s="26">
         <v>2980</v>
@@ -47255,7 +47252,7 @@
         <v>11311</v>
       </c>
       <c r="B1406" t="s" s="17">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="C1406" s="18"/>
       <c r="D1406" s="19"/>
@@ -47271,7 +47268,7 @@
         <v>3027</v>
       </c>
       <c r="L1406" t="s" s="24">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="M1406" s="22"/>
       <c r="N1406" s="23"/>
@@ -47281,7 +47278,7 @@
         <v>11312</v>
       </c>
       <c r="B1407" t="s" s="17">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="C1407" s="18"/>
       <c r="D1407" s="19"/>
@@ -47295,7 +47292,7 @@
         <v>2895</v>
       </c>
       <c r="L1407" t="s" s="24">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="M1407" t="s" s="26">
         <v>2980</v>
@@ -47307,7 +47304,7 @@
         <v>11313</v>
       </c>
       <c r="B1408" t="s" s="17">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="C1408" s="18"/>
       <c r="D1408" s="19"/>
@@ -47318,10 +47315,10 @@
       <c r="I1408" s="19"/>
       <c r="J1408" s="19"/>
       <c r="K1408" t="s" s="24">
+        <v>3223</v>
+      </c>
+      <c r="L1408" t="s" s="24">
         <v>3224</v>
-      </c>
-      <c r="L1408" t="s" s="24">
-        <v>3225</v>
       </c>
       <c r="M1408" t="s" s="26">
         <v>2980</v>
@@ -47333,7 +47330,7 @@
         <v>11314</v>
       </c>
       <c r="B1409" t="s" s="17">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="C1409" s="18"/>
       <c r="D1409" s="19"/>
@@ -47347,7 +47344,7 @@
         <v>2137</v>
       </c>
       <c r="L1409" t="s" s="24">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="M1409" t="s" s="26">
         <v>2980</v>
@@ -47359,7 +47356,7 @@
         <v>11315</v>
       </c>
       <c r="B1410" t="s" s="17">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="C1410" s="18"/>
       <c r="D1410" s="19"/>
@@ -47370,10 +47367,10 @@
       <c r="I1410" s="19"/>
       <c r="J1410" s="19"/>
       <c r="K1410" t="s" s="24">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="L1410" t="s" s="24">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="M1410" s="22"/>
       <c r="N1410" s="23"/>
@@ -47383,7 +47380,7 @@
         <v>11316</v>
       </c>
       <c r="B1411" t="s" s="17">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="C1411" s="18"/>
       <c r="D1411" s="19"/>
@@ -47394,7 +47391,7 @@
       <c r="I1411" s="19"/>
       <c r="J1411" s="19"/>
       <c r="K1411" t="s" s="24">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="L1411" s="21"/>
       <c r="M1411" s="22"/>
@@ -47405,7 +47402,7 @@
         <v>11317</v>
       </c>
       <c r="B1412" t="s" s="17">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="C1412" s="18"/>
       <c r="D1412" s="19"/>
@@ -47419,7 +47416,7 @@
         <v>2137</v>
       </c>
       <c r="L1412" t="s" s="24">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="M1412" s="22"/>
       <c r="N1412" s="23"/>
@@ -47429,7 +47426,7 @@
         <v>11318</v>
       </c>
       <c r="B1413" t="s" s="17">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="C1413" s="18"/>
       <c r="D1413" s="19"/>
@@ -47443,7 +47440,7 @@
         <v>2812</v>
       </c>
       <c r="L1413" t="s" s="24">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="M1413" s="22"/>
       <c r="N1413" s="23"/>
@@ -47453,7 +47450,7 @@
         <v>11319</v>
       </c>
       <c r="B1414" t="s" s="17">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="C1414" s="18"/>
       <c r="D1414" s="19"/>
@@ -47468,10 +47465,10 @@
       <c r="I1414" s="19"/>
       <c r="J1414" s="19"/>
       <c r="K1414" t="s" s="24">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="L1414" t="s" s="24">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="M1414" s="22"/>
       <c r="N1414" s="23"/>
@@ -47481,7 +47478,7 @@
         <v>11320</v>
       </c>
       <c r="B1415" t="s" s="17">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="C1415" s="18"/>
       <c r="D1415" s="19"/>
@@ -47492,10 +47489,10 @@
       <c r="I1415" s="19"/>
       <c r="J1415" s="19"/>
       <c r="K1415" t="s" s="24">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="L1415" t="s" s="24">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="M1415" s="22"/>
       <c r="N1415" s="23"/>
@@ -47505,7 +47502,7 @@
         <v>11321</v>
       </c>
       <c r="B1416" t="s" s="17">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C1416" s="18"/>
       <c r="D1416" s="19"/>
@@ -47516,10 +47513,10 @@
       <c r="I1416" s="19"/>
       <c r="J1416" s="19"/>
       <c r="K1416" t="s" s="24">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="L1416" t="s" s="24">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="M1416" s="22"/>
       <c r="N1416" s="23"/>
@@ -47529,7 +47526,7 @@
         <v>11322</v>
       </c>
       <c r="B1417" t="s" s="17">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C1417" s="18"/>
       <c r="D1417" s="19"/>
@@ -47540,10 +47537,10 @@
       <c r="I1417" s="19"/>
       <c r="J1417" s="19"/>
       <c r="K1417" t="s" s="24">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="L1417" t="s" s="24">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="M1417" s="22"/>
       <c r="N1417" s="23"/>
@@ -47553,7 +47550,7 @@
         <v>11323</v>
       </c>
       <c r="B1418" t="s" s="17">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="C1418" s="18"/>
       <c r="D1418" s="19"/>
@@ -47564,10 +47561,10 @@
       <c r="I1418" s="19"/>
       <c r="J1418" s="19"/>
       <c r="K1418" t="s" s="24">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="L1418" t="s" s="24">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="M1418" t="s" s="26">
         <v>2980</v>
@@ -47579,7 +47576,7 @@
         <v>11324</v>
       </c>
       <c r="B1419" t="s" s="17">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="C1419" s="18"/>
       <c r="D1419" s="19"/>
@@ -47590,10 +47587,10 @@
       <c r="I1419" s="19"/>
       <c r="J1419" s="19"/>
       <c r="K1419" t="s" s="24">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="L1419" t="s" s="24">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="M1419" t="s" s="26">
         <v>2980</v>
@@ -47605,10 +47602,10 @@
         <v>11325</v>
       </c>
       <c r="B1420" t="s" s="17">
+        <v>3244</v>
+      </c>
+      <c r="C1420" t="s" s="25">
         <v>3245</v>
-      </c>
-      <c r="C1420" t="s" s="25">
-        <v>3246</v>
       </c>
       <c r="D1420" s="19"/>
       <c r="E1420" s="19"/>
@@ -47621,10 +47618,10 @@
         <v>2137</v>
       </c>
       <c r="L1420" t="s" s="24">
+        <v>3246</v>
+      </c>
+      <c r="M1420" t="s" s="26">
         <v>3247</v>
-      </c>
-      <c r="M1420" t="s" s="26">
-        <v>3248</v>
       </c>
       <c r="N1420" s="23"/>
     </row>
@@ -47633,7 +47630,7 @@
         <v>21315</v>
       </c>
       <c r="B1421" t="s" s="17">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="C1421" s="18"/>
       <c r="D1421" s="19"/>
@@ -47657,10 +47654,10 @@
         <v>11326</v>
       </c>
       <c r="B1422" t="s" s="17">
+        <v>3249</v>
+      </c>
+      <c r="C1422" t="s" s="25">
         <v>3250</v>
-      </c>
-      <c r="C1422" t="s" s="25">
-        <v>3251</v>
       </c>
       <c r="D1422" s="19"/>
       <c r="E1422" s="19"/>
@@ -47670,10 +47667,10 @@
       <c r="I1422" s="19"/>
       <c r="J1422" s="19"/>
       <c r="K1422" t="s" s="24">
+        <v>3251</v>
+      </c>
+      <c r="L1422" t="s" s="24">
         <v>3252</v>
-      </c>
-      <c r="L1422" t="s" s="24">
-        <v>3253</v>
       </c>
       <c r="M1422" s="22"/>
       <c r="N1422" s="23"/>
@@ -47683,7 +47680,7 @@
         <v>11327</v>
       </c>
       <c r="B1423" t="s" s="17">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="C1423" s="18"/>
       <c r="D1423" s="19"/>
@@ -47694,10 +47691,10 @@
       <c r="I1423" s="19"/>
       <c r="J1423" s="19"/>
       <c r="K1423" t="s" s="24">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="L1423" t="s" s="24">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="M1423" s="22"/>
       <c r="N1423" s="23"/>
@@ -47707,7 +47704,7 @@
         <v>11328</v>
       </c>
       <c r="B1424" t="s" s="17">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="C1424" s="18"/>
       <c r="D1424" s="19"/>
@@ -47718,10 +47715,10 @@
       <c r="I1424" s="19"/>
       <c r="J1424" s="19"/>
       <c r="K1424" t="s" s="24">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="L1424" t="s" s="24">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="M1424" s="22"/>
       <c r="N1424" s="23"/>
@@ -47731,7 +47728,7 @@
         <v>11329</v>
       </c>
       <c r="B1425" t="s" s="17">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="C1425" s="18"/>
       <c r="D1425" s="19"/>
@@ -47742,10 +47739,10 @@
       <c r="I1425" s="19"/>
       <c r="J1425" s="19"/>
       <c r="K1425" t="s" s="24">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="L1425" t="s" s="24">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="M1425" s="22"/>
       <c r="N1425" s="23"/>
@@ -47755,7 +47752,7 @@
         <v>11330</v>
       </c>
       <c r="B1426" t="s" s="17">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="C1426" s="18"/>
       <c r="D1426" s="19"/>
@@ -47769,7 +47766,7 @@
         <v>3073</v>
       </c>
       <c r="L1426" t="s" s="24">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="M1426" s="22"/>
       <c r="N1426" s="23"/>
@@ -47779,7 +47776,7 @@
         <v>11331</v>
       </c>
       <c r="B1427" t="s" s="17">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="C1427" s="18"/>
       <c r="D1427" s="19"/>
@@ -47790,10 +47787,10 @@
       <c r="I1427" s="19"/>
       <c r="J1427" s="19"/>
       <c r="K1427" t="s" s="24">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="L1427" t="s" s="24">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="M1427" s="22"/>
       <c r="N1427" s="23"/>
@@ -47803,7 +47800,7 @@
         <v>11332</v>
       </c>
       <c r="B1428" t="s" s="17">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="C1428" s="18"/>
       <c r="D1428" s="19"/>
@@ -47817,7 +47814,7 @@
         <v>3078</v>
       </c>
       <c r="L1428" t="s" s="24">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="M1428" s="22"/>
       <c r="N1428" s="23"/>
@@ -47827,7 +47824,7 @@
         <v>11333</v>
       </c>
       <c r="B1429" t="s" s="17">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="C1429" s="18"/>
       <c r="D1429" s="19"/>
@@ -47841,7 +47838,7 @@
         <v>3080</v>
       </c>
       <c r="L1429" t="s" s="24">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="M1429" s="22"/>
       <c r="N1429" s="23"/>
@@ -47851,7 +47848,7 @@
         <v>11334</v>
       </c>
       <c r="B1430" t="s" s="17">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="C1430" s="18"/>
       <c r="D1430" s="19"/>
@@ -47865,7 +47862,7 @@
         <v>3082</v>
       </c>
       <c r="L1430" t="s" s="24">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="M1430" s="22"/>
       <c r="N1430" s="23"/>
@@ -47875,7 +47872,7 @@
         <v>11335</v>
       </c>
       <c r="B1431" t="s" s="17">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="C1431" s="18"/>
       <c r="D1431" s="19"/>
@@ -47890,7 +47887,7 @@
       <c r="I1431" s="19"/>
       <c r="J1431" s="19"/>
       <c r="K1431" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1431" s="21"/>
       <c r="M1431" s="22"/>
@@ -47901,7 +47898,7 @@
         <v>11336</v>
       </c>
       <c r="B1432" t="s" s="17">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="C1432" s="18"/>
       <c r="D1432" s="19"/>
@@ -47916,7 +47913,7 @@
       <c r="I1432" s="19"/>
       <c r="J1432" s="19"/>
       <c r="K1432" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1432" s="21"/>
       <c r="M1432" s="22"/>
@@ -47927,7 +47924,7 @@
         <v>11337</v>
       </c>
       <c r="B1433" t="s" s="17">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="C1433" s="18"/>
       <c r="D1433" s="19"/>
@@ -47942,7 +47939,7 @@
       <c r="I1433" s="19"/>
       <c r="J1433" s="19"/>
       <c r="K1433" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1433" s="21"/>
       <c r="M1433" s="22"/>
@@ -47953,7 +47950,7 @@
         <v>11338</v>
       </c>
       <c r="B1434" t="s" s="17">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1434" s="18"/>
       <c r="D1434" s="20">
@@ -47968,7 +47965,7 @@
       <c r="I1434" s="19"/>
       <c r="J1434" s="19"/>
       <c r="K1434" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1434" s="21"/>
       <c r="M1434" s="22"/>
@@ -47979,7 +47976,7 @@
         <v>11339</v>
       </c>
       <c r="B1435" t="s" s="17">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="C1435" s="18"/>
       <c r="D1435" s="20">
@@ -47994,7 +47991,7 @@
       <c r="I1435" s="19"/>
       <c r="J1435" s="19"/>
       <c r="K1435" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1435" s="21"/>
       <c r="M1435" s="22"/>
@@ -48005,7 +48002,7 @@
         <v>11340</v>
       </c>
       <c r="B1436" t="s" s="17">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="C1436" s="18"/>
       <c r="D1436" s="19"/>
@@ -48020,7 +48017,7 @@
       <c r="I1436" s="19"/>
       <c r="J1436" s="19"/>
       <c r="K1436" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1436" s="21"/>
       <c r="M1436" s="22"/>
@@ -48031,7 +48028,7 @@
         <v>11341</v>
       </c>
       <c r="B1437" t="s" s="17">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="C1437" s="18"/>
       <c r="D1437" s="19"/>
@@ -48046,7 +48043,7 @@
       <c r="I1437" s="19"/>
       <c r="J1437" s="19"/>
       <c r="K1437" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1437" s="21"/>
       <c r="M1437" s="22"/>
@@ -48057,7 +48054,7 @@
         <v>11342</v>
       </c>
       <c r="B1438" t="s" s="17">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="C1438" s="18"/>
       <c r="D1438" s="19"/>
@@ -48072,7 +48069,7 @@
       <c r="I1438" s="19"/>
       <c r="J1438" s="19"/>
       <c r="K1438" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1438" s="21"/>
       <c r="M1438" s="22"/>
@@ -48083,7 +48080,7 @@
         <v>11343</v>
       </c>
       <c r="B1439" t="s" s="17">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="C1439" s="18"/>
       <c r="D1439" s="19"/>
@@ -48098,7 +48095,7 @@
       <c r="I1439" s="19"/>
       <c r="J1439" s="19"/>
       <c r="K1439" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1439" s="21"/>
       <c r="M1439" s="22"/>
@@ -48109,7 +48106,7 @@
         <v>11344</v>
       </c>
       <c r="B1440" t="s" s="17">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="C1440" s="18"/>
       <c r="D1440" s="20">
@@ -48124,7 +48121,7 @@
       <c r="I1440" s="19"/>
       <c r="J1440" s="19"/>
       <c r="K1440" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1440" s="21"/>
       <c r="M1440" s="22"/>
@@ -48135,7 +48132,7 @@
         <v>11345</v>
       </c>
       <c r="B1441" t="s" s="17">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="C1441" s="18"/>
       <c r="D1441" s="19"/>
@@ -48150,7 +48147,7 @@
       <c r="I1441" s="19"/>
       <c r="J1441" s="19"/>
       <c r="K1441" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1441" s="21"/>
       <c r="M1441" s="22"/>
@@ -48161,7 +48158,7 @@
         <v>11346</v>
       </c>
       <c r="B1442" t="s" s="17">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="C1442" s="18"/>
       <c r="D1442" s="19"/>
@@ -48176,7 +48173,7 @@
       <c r="I1442" s="19"/>
       <c r="J1442" s="19"/>
       <c r="K1442" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1442" s="21"/>
       <c r="M1442" s="22"/>
@@ -48187,7 +48184,7 @@
         <v>11347</v>
       </c>
       <c r="B1443" t="s" s="17">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="C1443" s="18"/>
       <c r="D1443" s="19"/>
@@ -48200,11 +48197,11 @@
       <c r="I1443" s="19"/>
       <c r="J1443" s="19"/>
       <c r="K1443" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1443" s="21"/>
       <c r="M1443" t="s" s="26">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="N1443" s="23"/>
     </row>
@@ -48213,7 +48210,7 @@
         <v>11348</v>
       </c>
       <c r="B1444" t="s" s="17">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="C1444" s="18"/>
       <c r="D1444" s="19"/>
@@ -48226,11 +48223,11 @@
       <c r="I1444" s="19"/>
       <c r="J1444" s="19"/>
       <c r="K1444" t="s" s="24">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="L1444" s="21"/>
       <c r="M1444" t="s" s="26">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="N1444" s="23"/>
     </row>
@@ -48239,7 +48236,7 @@
         <v>11349</v>
       </c>
       <c r="B1445" t="s" s="17">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="C1445" s="18"/>
       <c r="D1445" s="19"/>
@@ -48250,7 +48247,7 @@
       <c r="I1445" s="19"/>
       <c r="J1445" s="19"/>
       <c r="K1445" t="s" s="24">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="L1445" s="21"/>
       <c r="M1445" s="22"/>
@@ -48261,7 +48258,7 @@
         <v>11350</v>
       </c>
       <c r="B1446" t="s" s="17">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="C1446" s="18"/>
       <c r="D1446" s="19"/>
@@ -48272,10 +48269,10 @@
       <c r="I1446" s="19"/>
       <c r="J1446" s="19"/>
       <c r="K1446" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1446" t="s" s="24">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="M1446" s="22"/>
       <c r="N1446" s="23"/>
@@ -48285,7 +48282,7 @@
         <v>11351</v>
       </c>
       <c r="B1447" t="s" s="17">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="C1447" s="18"/>
       <c r="D1447" s="19"/>
@@ -48296,10 +48293,10 @@
       <c r="I1447" s="19"/>
       <c r="J1447" s="19"/>
       <c r="K1447" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1447" t="s" s="24">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="M1447" s="22"/>
       <c r="N1447" s="23"/>
@@ -48309,7 +48306,7 @@
         <v>11352</v>
       </c>
       <c r="B1448" t="s" s="17">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="C1448" s="18"/>
       <c r="D1448" s="19"/>
@@ -48320,10 +48317,10 @@
       <c r="I1448" s="19"/>
       <c r="J1448" s="19"/>
       <c r="K1448" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1448" t="s" s="24">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="M1448" s="22"/>
       <c r="N1448" s="23"/>
@@ -48333,7 +48330,7 @@
         <v>11353</v>
       </c>
       <c r="B1449" t="s" s="17">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C1449" s="18"/>
       <c r="D1449" s="19"/>
@@ -48344,10 +48341,10 @@
       <c r="I1449" s="19"/>
       <c r="J1449" s="19"/>
       <c r="K1449" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1449" t="s" s="24">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="M1449" s="22"/>
       <c r="N1449" s="23"/>
@@ -48357,7 +48354,7 @@
         <v>11354</v>
       </c>
       <c r="B1450" t="s" s="17">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="C1450" s="18"/>
       <c r="D1450" s="19"/>
@@ -48370,10 +48367,10 @@
       <c r="I1450" s="19"/>
       <c r="J1450" s="19"/>
       <c r="K1450" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1450" t="s" s="24">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="M1450" s="22"/>
       <c r="N1450" s="23"/>
@@ -48383,7 +48380,7 @@
         <v>11355</v>
       </c>
       <c r="B1451" t="s" s="17">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="C1451" s="18"/>
       <c r="D1451" s="19"/>
@@ -48396,10 +48393,10 @@
       <c r="I1451" s="19"/>
       <c r="J1451" s="19"/>
       <c r="K1451" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1451" t="s" s="24">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="M1451" s="22"/>
       <c r="N1451" s="23"/>
@@ -48409,7 +48406,7 @@
         <v>11356</v>
       </c>
       <c r="B1452" t="s" s="17">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="C1452" s="18"/>
       <c r="D1452" s="19"/>
@@ -48420,10 +48417,10 @@
       <c r="I1452" s="19"/>
       <c r="J1452" s="19"/>
       <c r="K1452" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1452" t="s" s="24">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="M1452" s="22"/>
       <c r="N1452" s="23"/>
@@ -48433,7 +48430,7 @@
         <v>11357</v>
       </c>
       <c r="B1453" t="s" s="17">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="C1453" s="18"/>
       <c r="D1453" s="19"/>
@@ -48444,10 +48441,10 @@
       <c r="I1453" s="19"/>
       <c r="J1453" s="19"/>
       <c r="K1453" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1453" t="s" s="24">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="M1453" s="22"/>
       <c r="N1453" s="23"/>
@@ -48457,7 +48454,7 @@
         <v>11358</v>
       </c>
       <c r="B1454" t="s" s="17">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="C1454" s="18"/>
       <c r="D1454" s="19"/>
@@ -48468,10 +48465,10 @@
       <c r="I1454" s="19"/>
       <c r="J1454" s="19"/>
       <c r="K1454" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1454" t="s" s="24">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="M1454" s="22"/>
       <c r="N1454" s="23"/>
@@ -48481,7 +48478,7 @@
         <v>11359</v>
       </c>
       <c r="B1455" t="s" s="17">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="C1455" s="18"/>
       <c r="D1455" s="19"/>
@@ -48492,10 +48489,10 @@
       <c r="I1455" s="19"/>
       <c r="J1455" s="19"/>
       <c r="K1455" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1455" t="s" s="24">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="M1455" s="22"/>
       <c r="N1455" s="23"/>
@@ -48505,7 +48502,7 @@
         <v>11360</v>
       </c>
       <c r="B1456" t="s" s="17">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="C1456" s="18"/>
       <c r="D1456" s="19"/>
@@ -48516,10 +48513,10 @@
       <c r="I1456" s="19"/>
       <c r="J1456" s="19"/>
       <c r="K1456" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1456" t="s" s="24">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="M1456" s="22"/>
       <c r="N1456" s="23"/>
@@ -48529,7 +48526,7 @@
         <v>11361</v>
       </c>
       <c r="B1457" t="s" s="17">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="C1457" s="18"/>
       <c r="D1457" s="19"/>
@@ -48542,10 +48539,10 @@
       <c r="I1457" s="19"/>
       <c r="J1457" s="19"/>
       <c r="K1457" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1457" t="s" s="24">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="M1457" s="22"/>
       <c r="N1457" s="23"/>
@@ -48555,7 +48552,7 @@
         <v>11362</v>
       </c>
       <c r="B1458" t="s" s="17">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C1458" s="18"/>
       <c r="D1458" s="19"/>
@@ -48566,10 +48563,10 @@
       <c r="I1458" s="19"/>
       <c r="J1458" s="19"/>
       <c r="K1458" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1458" t="s" s="24">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="M1458" s="22"/>
       <c r="N1458" s="23"/>
@@ -48579,7 +48576,7 @@
         <v>11363</v>
       </c>
       <c r="B1459" t="s" s="17">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="C1459" s="18"/>
       <c r="D1459" s="19"/>
@@ -48592,10 +48589,10 @@
       <c r="I1459" s="19"/>
       <c r="J1459" s="19"/>
       <c r="K1459" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1459" t="s" s="24">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="M1459" s="22"/>
       <c r="N1459" s="23"/>
@@ -48605,7 +48602,7 @@
         <v>11364</v>
       </c>
       <c r="B1460" t="s" s="17">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="C1460" s="18"/>
       <c r="D1460" s="19"/>
@@ -48616,10 +48613,10 @@
       <c r="I1460" s="19"/>
       <c r="J1460" s="19"/>
       <c r="K1460" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1460" t="s" s="24">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="M1460" s="22"/>
       <c r="N1460" s="23"/>
@@ -48629,7 +48626,7 @@
         <v>11365</v>
       </c>
       <c r="B1461" t="s" s="17">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="C1461" s="18"/>
       <c r="D1461" s="19"/>
@@ -48640,10 +48637,10 @@
       <c r="I1461" s="19"/>
       <c r="J1461" s="19"/>
       <c r="K1461" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1461" t="s" s="24">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="M1461" s="22"/>
       <c r="N1461" s="23"/>
@@ -48653,7 +48650,7 @@
         <v>11366</v>
       </c>
       <c r="B1462" t="s" s="17">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="C1462" s="18"/>
       <c r="D1462" s="19"/>
@@ -48664,10 +48661,10 @@
       <c r="I1462" s="19"/>
       <c r="J1462" s="19"/>
       <c r="K1462" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1462" t="s" s="24">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="M1462" s="22"/>
       <c r="N1462" s="23"/>
@@ -48677,7 +48674,7 @@
         <v>11367</v>
       </c>
       <c r="B1463" t="s" s="17">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="C1463" s="18"/>
       <c r="D1463" s="19"/>
@@ -48688,10 +48685,10 @@
       <c r="I1463" s="19"/>
       <c r="J1463" s="19"/>
       <c r="K1463" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1463" t="s" s="24">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="M1463" s="22"/>
       <c r="N1463" s="23"/>
@@ -48701,7 +48698,7 @@
         <v>11368</v>
       </c>
       <c r="B1464" t="s" s="17">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="C1464" s="18"/>
       <c r="D1464" s="19"/>
@@ -48712,10 +48709,10 @@
       <c r="I1464" s="19"/>
       <c r="J1464" s="19"/>
       <c r="K1464" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1464" t="s" s="24">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="M1464" s="22"/>
       <c r="N1464" s="23"/>
@@ -48725,7 +48722,7 @@
         <v>11369</v>
       </c>
       <c r="B1465" t="s" s="17">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="C1465" s="18"/>
       <c r="D1465" s="19"/>
@@ -48736,10 +48733,10 @@
       <c r="I1465" s="19"/>
       <c r="J1465" s="19"/>
       <c r="K1465" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1465" t="s" s="24">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="M1465" s="22"/>
       <c r="N1465" s="23"/>
@@ -48749,7 +48746,7 @@
         <v>11370</v>
       </c>
       <c r="B1466" t="s" s="17">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="C1466" s="18"/>
       <c r="D1466" s="19"/>
@@ -48760,10 +48757,10 @@
       <c r="I1466" s="19"/>
       <c r="J1466" s="19"/>
       <c r="K1466" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1466" t="s" s="24">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="M1466" s="22"/>
       <c r="N1466" s="23"/>
@@ -48773,7 +48770,7 @@
         <v>11371</v>
       </c>
       <c r="B1467" t="s" s="17">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="C1467" s="18"/>
       <c r="D1467" s="19"/>
@@ -48784,10 +48781,10 @@
       <c r="I1467" s="19"/>
       <c r="J1467" s="19"/>
       <c r="K1467" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1467" t="s" s="24">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="M1467" s="22"/>
       <c r="N1467" s="23"/>
@@ -48797,7 +48794,7 @@
         <v>11372</v>
       </c>
       <c r="B1468" t="s" s="17">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="C1468" s="18"/>
       <c r="D1468" s="19"/>
@@ -48810,10 +48807,10 @@
       <c r="I1468" s="19"/>
       <c r="J1468" s="19"/>
       <c r="K1468" t="s" s="24">
+        <v>3327</v>
+      </c>
+      <c r="L1468" t="s" s="24">
         <v>3328</v>
-      </c>
-      <c r="L1468" t="s" s="24">
-        <v>3329</v>
       </c>
       <c r="M1468" s="22"/>
       <c r="N1468" s="23"/>
@@ -48823,7 +48820,7 @@
         <v>11373</v>
       </c>
       <c r="B1469" t="s" s="17">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="C1469" s="18"/>
       <c r="D1469" s="19"/>
@@ -48834,10 +48831,10 @@
       <c r="I1469" s="19"/>
       <c r="J1469" s="19"/>
       <c r="K1469" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1469" t="s" s="24">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="M1469" s="22"/>
       <c r="N1469" s="23"/>
@@ -48847,7 +48844,7 @@
         <v>11374</v>
       </c>
       <c r="B1470" t="s" s="17">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="C1470" s="18"/>
       <c r="D1470" s="19"/>
@@ -48858,10 +48855,10 @@
       <c r="I1470" s="19"/>
       <c r="J1470" s="19"/>
       <c r="K1470" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1470" t="s" s="24">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="M1470" s="22"/>
       <c r="N1470" s="23"/>
@@ -48871,7 +48868,7 @@
         <v>11375</v>
       </c>
       <c r="B1471" t="s" s="17">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="C1471" s="18"/>
       <c r="D1471" s="19"/>
@@ -48882,10 +48879,10 @@
       <c r="I1471" s="19"/>
       <c r="J1471" s="19"/>
       <c r="K1471" t="s" s="24">
+        <v>3334</v>
+      </c>
+      <c r="L1471" t="s" s="24">
         <v>3335</v>
-      </c>
-      <c r="L1471" t="s" s="24">
-        <v>3336</v>
       </c>
       <c r="M1471" s="22"/>
       <c r="N1471" s="23"/>
@@ -48895,7 +48892,7 @@
         <v>11376</v>
       </c>
       <c r="B1472" t="s" s="17">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="C1472" s="18"/>
       <c r="D1472" s="19"/>
@@ -48906,10 +48903,10 @@
       <c r="I1472" s="19"/>
       <c r="J1472" s="19"/>
       <c r="K1472" t="s" s="24">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="L1472" t="s" s="24">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="M1472" s="22"/>
       <c r="N1472" s="23"/>
@@ -48919,7 +48916,7 @@
         <v>11377</v>
       </c>
       <c r="B1473" t="s" s="17">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C1473" s="18"/>
       <c r="D1473" s="19"/>
@@ -48933,7 +48930,7 @@
         <v>3027</v>
       </c>
       <c r="L1473" t="s" s="24">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="M1473" s="22"/>
       <c r="N1473" s="23"/>
@@ -48943,7 +48940,7 @@
         <v>11378</v>
       </c>
       <c r="B1474" t="s" s="17">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="C1474" s="18"/>
       <c r="D1474" s="19"/>
@@ -48954,10 +48951,10 @@
       <c r="I1474" s="19"/>
       <c r="J1474" s="19"/>
       <c r="K1474" t="s" s="24">
+        <v>3341</v>
+      </c>
+      <c r="L1474" t="s" s="24">
         <v>3342</v>
-      </c>
-      <c r="L1474" t="s" s="24">
-        <v>3343</v>
       </c>
       <c r="M1474" s="22"/>
       <c r="N1474" s="23"/>
@@ -48967,7 +48964,7 @@
         <v>11379</v>
       </c>
       <c r="B1475" t="s" s="17">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="C1475" s="18"/>
       <c r="D1475" s="19"/>
@@ -48978,10 +48975,10 @@
       <c r="I1475" s="19"/>
       <c r="J1475" s="19"/>
       <c r="K1475" t="s" s="24">
+        <v>3344</v>
+      </c>
+      <c r="L1475" t="s" s="24">
         <v>3345</v>
-      </c>
-      <c r="L1475" t="s" s="24">
-        <v>3346</v>
       </c>
       <c r="M1475" s="22"/>
       <c r="N1475" s="23"/>
@@ -48991,7 +48988,7 @@
         <v>11380</v>
       </c>
       <c r="B1476" t="s" s="17">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="C1476" s="18"/>
       <c r="D1476" s="19"/>
@@ -49002,10 +48999,10 @@
       <c r="I1476" s="19"/>
       <c r="J1476" s="19"/>
       <c r="K1476" t="s" s="24">
+        <v>3347</v>
+      </c>
+      <c r="L1476" t="s" s="24">
         <v>3348</v>
-      </c>
-      <c r="L1476" t="s" s="24">
-        <v>3349</v>
       </c>
       <c r="M1476" s="22"/>
       <c r="N1476" s="23"/>
@@ -49015,7 +49012,7 @@
         <v>11381</v>
       </c>
       <c r="B1477" t="s" s="17">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="C1477" s="18"/>
       <c r="D1477" s="19"/>
@@ -49026,10 +49023,10 @@
       <c r="I1477" s="19"/>
       <c r="J1477" s="19"/>
       <c r="K1477" t="s" s="24">
+        <v>3350</v>
+      </c>
+      <c r="L1477" t="s" s="24">
         <v>3351</v>
-      </c>
-      <c r="L1477" t="s" s="24">
-        <v>3352</v>
       </c>
       <c r="M1477" s="22"/>
       <c r="N1477" s="23"/>
@@ -49039,7 +49036,7 @@
         <v>11382</v>
       </c>
       <c r="B1478" t="s" s="17">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="C1478" s="18"/>
       <c r="D1478" s="19"/>
@@ -49053,7 +49050,7 @@
         <v>3027</v>
       </c>
       <c r="L1478" t="s" s="24">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="M1478" s="22"/>
       <c r="N1478" s="23"/>
@@ -49063,7 +49060,7 @@
         <v>11383</v>
       </c>
       <c r="B1479" t="s" s="17">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="C1479" s="18"/>
       <c r="D1479" s="19"/>
@@ -49079,7 +49076,7 @@
         <v>3027</v>
       </c>
       <c r="L1479" t="s" s="24">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="M1479" s="22"/>
       <c r="N1479" s="23"/>
@@ -49089,7 +49086,7 @@
         <v>11384</v>
       </c>
       <c r="B1480" t="s" s="17">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="C1480" s="18"/>
       <c r="D1480" s="19"/>
@@ -49103,7 +49100,7 @@
         <v>3027</v>
       </c>
       <c r="L1480" t="s" s="24">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="M1480" s="22"/>
       <c r="N1480" s="23"/>
@@ -49113,7 +49110,7 @@
         <v>11385</v>
       </c>
       <c r="B1481" t="s" s="17">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="C1481" s="18"/>
       <c r="D1481" s="19"/>
@@ -49129,7 +49126,7 @@
         <v>3027</v>
       </c>
       <c r="L1481" t="s" s="24">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="M1481" s="22"/>
       <c r="N1481" s="23"/>
@@ -49139,7 +49136,7 @@
         <v>11386</v>
       </c>
       <c r="B1482" t="s" s="17">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="C1482" s="18"/>
       <c r="D1482" s="19"/>
@@ -49153,7 +49150,7 @@
         <v>3027</v>
       </c>
       <c r="L1482" t="s" s="24">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="M1482" s="22"/>
       <c r="N1482" s="23"/>
@@ -49163,7 +49160,7 @@
         <v>11387</v>
       </c>
       <c r="B1483" t="s" s="17">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="C1483" s="18"/>
       <c r="D1483" s="19"/>
@@ -49177,7 +49174,7 @@
         <v>3027</v>
       </c>
       <c r="L1483" t="s" s="24">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="M1483" s="22"/>
       <c r="N1483" s="23"/>
@@ -49187,7 +49184,7 @@
         <v>11388</v>
       </c>
       <c r="B1484" t="s" s="17">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="C1484" s="18"/>
       <c r="D1484" s="19"/>
@@ -49201,7 +49198,7 @@
         <v>3027</v>
       </c>
       <c r="L1484" t="s" s="24">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="M1484" s="22"/>
       <c r="N1484" s="23"/>
@@ -49211,7 +49208,7 @@
         <v>11389</v>
       </c>
       <c r="B1485" t="s" s="17">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="C1485" s="18"/>
       <c r="D1485" s="19"/>
@@ -49225,7 +49222,7 @@
         <v>3027</v>
       </c>
       <c r="L1485" t="s" s="24">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="M1485" s="22"/>
       <c r="N1485" s="23"/>
@@ -49235,7 +49232,7 @@
         <v>11390</v>
       </c>
       <c r="B1486" t="s" s="17">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="C1486" s="18"/>
       <c r="D1486" s="19"/>
@@ -49249,7 +49246,7 @@
         <v>3027</v>
       </c>
       <c r="L1486" t="s" s="24">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="M1486" s="22"/>
       <c r="N1486" s="23"/>
@@ -49259,7 +49256,7 @@
         <v>11391</v>
       </c>
       <c r="B1487" t="s" s="17">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="C1487" s="18"/>
       <c r="D1487" s="19"/>
@@ -49273,7 +49270,7 @@
         <v>3027</v>
       </c>
       <c r="L1487" t="s" s="24">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="M1487" s="22"/>
       <c r="N1487" s="23"/>
@@ -49283,7 +49280,7 @@
         <v>11392</v>
       </c>
       <c r="B1488" t="s" s="17">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="C1488" s="18"/>
       <c r="D1488" s="19"/>
@@ -49299,7 +49296,7 @@
         <v>3027</v>
       </c>
       <c r="L1488" t="s" s="24">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="M1488" s="22"/>
       <c r="N1488" s="23"/>
@@ -49309,7 +49306,7 @@
         <v>11393</v>
       </c>
       <c r="B1489" t="s" s="17">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="C1489" s="18"/>
       <c r="D1489" s="19"/>
@@ -49323,7 +49320,7 @@
         <v>3027</v>
       </c>
       <c r="L1489" t="s" s="24">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="M1489" s="22"/>
       <c r="N1489" s="23"/>
@@ -49333,7 +49330,7 @@
         <v>11394</v>
       </c>
       <c r="B1490" t="s" s="17">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="C1490" s="18"/>
       <c r="D1490" s="19"/>
@@ -49347,7 +49344,7 @@
         <v>3027</v>
       </c>
       <c r="L1490" t="s" s="24">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="M1490" s="22"/>
       <c r="N1490" s="23"/>
@@ -49357,7 +49354,7 @@
         <v>11395</v>
       </c>
       <c r="B1491" t="s" s="17">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="C1491" s="18"/>
       <c r="D1491" s="19"/>
@@ -49371,7 +49368,7 @@
         <v>3027</v>
       </c>
       <c r="L1491" t="s" s="24">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="M1491" s="22"/>
       <c r="N1491" s="23"/>
@@ -49381,7 +49378,7 @@
         <v>11396</v>
       </c>
       <c r="B1492" t="s" s="17">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="C1492" s="18"/>
       <c r="D1492" s="19"/>
@@ -49395,7 +49392,7 @@
         <v>3027</v>
       </c>
       <c r="L1492" t="s" s="24">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="M1492" s="22"/>
       <c r="N1492" s="23"/>
@@ -49405,7 +49402,7 @@
         <v>11397</v>
       </c>
       <c r="B1493" t="s" s="17">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="C1493" s="18"/>
       <c r="D1493" s="19"/>
@@ -49416,10 +49413,10 @@
       <c r="I1493" s="19"/>
       <c r="J1493" s="19"/>
       <c r="K1493" t="s" s="24">
+        <v>3383</v>
+      </c>
+      <c r="L1493" t="s" s="24">
         <v>3384</v>
-      </c>
-      <c r="L1493" t="s" s="24">
-        <v>3385</v>
       </c>
       <c r="M1493" s="22"/>
       <c r="N1493" s="23"/>
@@ -49429,7 +49426,7 @@
         <v>11398</v>
       </c>
       <c r="B1494" t="s" s="17">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="C1494" s="18"/>
       <c r="D1494" s="19"/>
@@ -49440,10 +49437,10 @@
       <c r="I1494" s="19"/>
       <c r="J1494" s="19"/>
       <c r="K1494" t="s" s="24">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="L1494" t="s" s="24">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="M1494" s="22"/>
       <c r="N1494" s="23"/>
@@ -49453,7 +49450,7 @@
         <v>11399</v>
       </c>
       <c r="B1495" t="s" s="17">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="C1495" s="18"/>
       <c r="D1495" s="19"/>
@@ -49464,10 +49461,10 @@
       <c r="I1495" s="19"/>
       <c r="J1495" s="19"/>
       <c r="K1495" t="s" s="24">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="L1495" t="s" s="24">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="M1495" s="22"/>
       <c r="N1495" s="23"/>
@@ -49477,7 +49474,7 @@
         <v>11400</v>
       </c>
       <c r="B1496" t="s" s="17">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="C1496" s="18"/>
       <c r="D1496" s="19"/>
@@ -49488,10 +49485,10 @@
       <c r="I1496" s="19"/>
       <c r="J1496" s="19"/>
       <c r="K1496" t="s" s="24">
+        <v>3390</v>
+      </c>
+      <c r="L1496" t="s" s="24">
         <v>3391</v>
-      </c>
-      <c r="L1496" t="s" s="24">
-        <v>3392</v>
       </c>
       <c r="M1496" s="22"/>
       <c r="N1496" s="23"/>
@@ -49501,7 +49498,7 @@
         <v>11401</v>
       </c>
       <c r="B1497" t="s" s="17">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="C1497" s="18"/>
       <c r="D1497" s="19"/>
@@ -49514,10 +49511,10 @@
       <c r="I1497" s="19"/>
       <c r="J1497" s="19"/>
       <c r="K1497" t="s" s="24">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="L1497" t="s" s="24">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="M1497" s="22"/>
       <c r="N1497" s="23"/>
@@ -49527,7 +49524,7 @@
         <v>11402</v>
       </c>
       <c r="B1498" t="s" s="17">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C1498" s="18"/>
       <c r="D1498" s="19"/>
@@ -49541,7 +49538,7 @@
         <v>2134</v>
       </c>
       <c r="L1498" t="s" s="24">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="M1498" s="22"/>
       <c r="N1498" s="23"/>
@@ -49551,7 +49548,7 @@
         <v>11403</v>
       </c>
       <c r="B1499" t="s" s="17">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="C1499" s="18"/>
       <c r="D1499" s="19"/>
@@ -49562,10 +49559,10 @@
       <c r="I1499" s="19"/>
       <c r="J1499" s="19"/>
       <c r="K1499" t="s" s="24">
+        <v>3397</v>
+      </c>
+      <c r="L1499" t="s" s="24">
         <v>3398</v>
-      </c>
-      <c r="L1499" t="s" s="24">
-        <v>3399</v>
       </c>
       <c r="M1499" s="22"/>
       <c r="N1499" s="23"/>
@@ -49575,7 +49572,7 @@
         <v>11404</v>
       </c>
       <c r="B1500" t="s" s="17">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="C1500" s="18"/>
       <c r="D1500" s="19"/>
@@ -49586,10 +49583,10 @@
       <c r="I1500" s="19"/>
       <c r="J1500" s="19"/>
       <c r="K1500" t="s" s="24">
+        <v>3400</v>
+      </c>
+      <c r="L1500" t="s" s="24">
         <v>3401</v>
-      </c>
-      <c r="L1500" t="s" s="24">
-        <v>3402</v>
       </c>
       <c r="M1500" s="22"/>
       <c r="N1500" s="23"/>
@@ -49599,7 +49596,7 @@
         <v>11405</v>
       </c>
       <c r="B1501" t="s" s="17">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="C1501" s="18"/>
       <c r="D1501" s="19"/>
@@ -49610,10 +49607,10 @@
       <c r="I1501" s="19"/>
       <c r="J1501" s="19"/>
       <c r="K1501" t="s" s="24">
+        <v>3403</v>
+      </c>
+      <c r="L1501" t="s" s="24">
         <v>3404</v>
-      </c>
-      <c r="L1501" t="s" s="24">
-        <v>3405</v>
       </c>
       <c r="M1501" s="22"/>
       <c r="N1501" s="23"/>
@@ -49623,7 +49620,7 @@
         <v>11406</v>
       </c>
       <c r="B1502" t="s" s="17">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="C1502" s="18"/>
       <c r="D1502" s="19"/>
@@ -49634,10 +49631,10 @@
       <c r="I1502" s="19"/>
       <c r="J1502" s="19"/>
       <c r="K1502" t="s" s="24">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="L1502" t="s" s="24">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="M1502" s="22"/>
       <c r="N1502" s="23"/>
@@ -49647,7 +49644,7 @@
         <v>11407</v>
       </c>
       <c r="B1503" t="s" s="17">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="C1503" s="18"/>
       <c r="D1503" s="19"/>
@@ -49658,10 +49655,10 @@
       <c r="I1503" s="19"/>
       <c r="J1503" s="19"/>
       <c r="K1503" t="s" s="24">
+        <v>3408</v>
+      </c>
+      <c r="L1503" t="s" s="24">
         <v>3409</v>
-      </c>
-      <c r="L1503" t="s" s="24">
-        <v>3410</v>
       </c>
       <c r="M1503" s="22"/>
       <c r="N1503" s="23"/>
@@ -49671,7 +49668,7 @@
         <v>11408</v>
       </c>
       <c r="B1504" t="s" s="17">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="C1504" s="18"/>
       <c r="D1504" s="19"/>
@@ -49682,10 +49679,10 @@
       <c r="I1504" s="19"/>
       <c r="J1504" s="19"/>
       <c r="K1504" t="s" s="24">
+        <v>3411</v>
+      </c>
+      <c r="L1504" t="s" s="24">
         <v>3412</v>
-      </c>
-      <c r="L1504" t="s" s="24">
-        <v>3413</v>
       </c>
       <c r="M1504" s="22"/>
       <c r="N1504" s="23"/>
@@ -49695,7 +49692,7 @@
         <v>11409</v>
       </c>
       <c r="B1505" t="s" s="17">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="C1505" s="18"/>
       <c r="D1505" s="19"/>
@@ -49706,10 +49703,10 @@
       <c r="I1505" s="19"/>
       <c r="J1505" s="19"/>
       <c r="K1505" t="s" s="24">
+        <v>3414</v>
+      </c>
+      <c r="L1505" t="s" s="24">
         <v>3415</v>
-      </c>
-      <c r="L1505" t="s" s="24">
-        <v>3416</v>
       </c>
       <c r="M1505" s="22"/>
       <c r="N1505" s="23"/>
@@ -49719,7 +49716,7 @@
         <v>11410</v>
       </c>
       <c r="B1506" t="s" s="17">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="C1506" s="18"/>
       <c r="D1506" s="19"/>
@@ -49733,7 +49730,7 @@
         <v>2134</v>
       </c>
       <c r="L1506" t="s" s="24">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="M1506" s="22"/>
       <c r="N1506" s="23"/>
@@ -49743,7 +49740,7 @@
         <v>11411</v>
       </c>
       <c r="B1507" t="s" s="17">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="C1507" s="18"/>
       <c r="D1507" s="19"/>
@@ -49754,10 +49751,10 @@
       <c r="I1507" s="19"/>
       <c r="J1507" s="19"/>
       <c r="K1507" t="s" s="24">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="L1507" t="s" s="24">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="M1507" s="22"/>
       <c r="N1507" s="23"/>
@@ -49767,7 +49764,7 @@
         <v>11412</v>
       </c>
       <c r="B1508" t="s" s="17">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="C1508" s="18"/>
       <c r="D1508" s="19"/>
@@ -49781,7 +49778,7 @@
         <v>2298</v>
       </c>
       <c r="L1508" t="s" s="24">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="M1508" s="22"/>
       <c r="N1508" s="23"/>
@@ -49791,7 +49788,7 @@
         <v>11413</v>
       </c>
       <c r="B1509" t="s" s="17">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="C1509" s="18"/>
       <c r="D1509" s="19"/>
@@ -49802,10 +49799,10 @@
       <c r="I1509" s="19"/>
       <c r="J1509" s="19"/>
       <c r="K1509" t="s" s="24">
+        <v>3423</v>
+      </c>
+      <c r="L1509" t="s" s="24">
         <v>3424</v>
-      </c>
-      <c r="L1509" t="s" s="24">
-        <v>3425</v>
       </c>
       <c r="M1509" s="22"/>
       <c r="N1509" s="23"/>
@@ -49815,7 +49812,7 @@
         <v>11414</v>
       </c>
       <c r="B1510" t="s" s="17">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="C1510" s="18"/>
       <c r="D1510" s="19"/>
@@ -49829,7 +49826,7 @@
         <v>2137</v>
       </c>
       <c r="L1510" t="s" s="24">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="M1510" s="22"/>
       <c r="N1510" s="23"/>
@@ -49839,7 +49836,7 @@
         <v>11415</v>
       </c>
       <c r="B1511" t="s" s="17">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="C1511" s="18"/>
       <c r="D1511" s="19"/>
@@ -49853,7 +49850,7 @@
         <v>2137</v>
       </c>
       <c r="L1511" t="s" s="24">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="M1511" s="22"/>
       <c r="N1511" s="23"/>
@@ -49863,7 +49860,7 @@
         <v>11416</v>
       </c>
       <c r="B1512" t="s" s="17">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="C1512" s="18"/>
       <c r="D1512" s="19"/>
@@ -49877,7 +49874,7 @@
         <v>2137</v>
       </c>
       <c r="L1512" t="s" s="24">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="M1512" s="22"/>
       <c r="N1512" s="23"/>
@@ -49887,7 +49884,7 @@
         <v>11417</v>
       </c>
       <c r="B1513" t="s" s="17">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="C1513" s="18"/>
       <c r="D1513" s="19"/>
@@ -49901,7 +49898,7 @@
         <v>2137</v>
       </c>
       <c r="L1513" t="s" s="24">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="M1513" s="22"/>
       <c r="N1513" s="23"/>
@@ -49911,7 +49908,7 @@
         <v>11418</v>
       </c>
       <c r="B1514" t="s" s="17">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="C1514" s="18"/>
       <c r="D1514" s="19"/>
@@ -49925,7 +49922,7 @@
         <v>2137</v>
       </c>
       <c r="L1514" t="s" s="24">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="M1514" s="22"/>
       <c r="N1514" s="23"/>
@@ -49935,7 +49932,7 @@
         <v>11419</v>
       </c>
       <c r="B1515" t="s" s="17">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="C1515" s="18"/>
       <c r="D1515" s="19"/>
@@ -49949,7 +49946,7 @@
         <v>2137</v>
       </c>
       <c r="L1515" t="s" s="24">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="M1515" s="22"/>
       <c r="N1515" s="23"/>
@@ -49959,7 +49956,7 @@
         <v>11420</v>
       </c>
       <c r="B1516" t="s" s="17">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="C1516" s="18"/>
       <c r="D1516" s="19"/>
@@ -49973,7 +49970,7 @@
         <v>2137</v>
       </c>
       <c r="L1516" t="s" s="24">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="M1516" s="22"/>
       <c r="N1516" s="23"/>
@@ -49983,7 +49980,7 @@
         <v>11421</v>
       </c>
       <c r="B1517" t="s" s="17">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="C1517" s="18"/>
       <c r="D1517" s="19"/>
@@ -49997,7 +49994,7 @@
         <v>2137</v>
       </c>
       <c r="L1517" t="s" s="24">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="M1517" s="22"/>
       <c r="N1517" s="23"/>
@@ -50007,7 +50004,7 @@
         <v>11422</v>
       </c>
       <c r="B1518" t="s" s="17">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C1518" s="18"/>
       <c r="D1518" s="19"/>
@@ -50021,7 +50018,7 @@
         <v>2137</v>
       </c>
       <c r="L1518" t="s" s="24">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="M1518" s="22"/>
       <c r="N1518" s="23"/>
@@ -50031,10 +50028,10 @@
         <v>11423</v>
       </c>
       <c r="B1519" t="s" s="17">
+        <v>3443</v>
+      </c>
+      <c r="C1519" t="s" s="25">
         <v>3444</v>
-      </c>
-      <c r="C1519" t="s" s="25">
-        <v>3445</v>
       </c>
       <c r="D1519" s="19"/>
       <c r="E1519" s="19"/>
@@ -50047,7 +50044,7 @@
         <v>2137</v>
       </c>
       <c r="L1519" t="s" s="24">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="M1519" s="22"/>
       <c r="N1519" s="23"/>
@@ -50057,7 +50054,7 @@
         <v>11424</v>
       </c>
       <c r="B1520" t="s" s="17">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="C1520" s="18"/>
       <c r="D1520" s="19"/>
@@ -50071,7 +50068,7 @@
         <v>2137</v>
       </c>
       <c r="L1520" t="s" s="24">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="M1520" s="22"/>
       <c r="N1520" s="23"/>
@@ -50081,7 +50078,7 @@
         <v>11425</v>
       </c>
       <c r="B1521" t="s" s="17">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="C1521" s="18"/>
       <c r="D1521" s="19"/>
@@ -50095,7 +50092,7 @@
         <v>2137</v>
       </c>
       <c r="L1521" t="s" s="24">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="M1521" s="22"/>
       <c r="N1521" s="23"/>
@@ -50105,10 +50102,10 @@
         <v>11426</v>
       </c>
       <c r="B1522" t="s" s="17">
+        <v>3449</v>
+      </c>
+      <c r="C1522" t="s" s="25">
         <v>3450</v>
-      </c>
-      <c r="C1522" t="s" s="25">
-        <v>3451</v>
       </c>
       <c r="D1522" s="19"/>
       <c r="E1522" s="19"/>
@@ -50121,7 +50118,7 @@
         <v>2137</v>
       </c>
       <c r="L1522" t="s" s="24">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="M1522" s="22"/>
       <c r="N1522" s="23"/>
@@ -50131,10 +50128,10 @@
         <v>11427</v>
       </c>
       <c r="B1523" t="s" s="17">
+        <v>3451</v>
+      </c>
+      <c r="C1523" t="s" s="25">
         <v>3452</v>
-      </c>
-      <c r="C1523" t="s" s="25">
-        <v>3453</v>
       </c>
       <c r="D1523" s="19"/>
       <c r="E1523" s="19"/>
@@ -50147,7 +50144,7 @@
         <v>2137</v>
       </c>
       <c r="L1523" t="s" s="24">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="M1523" s="22"/>
       <c r="N1523" s="23"/>
@@ -50157,7 +50154,7 @@
         <v>11428</v>
       </c>
       <c r="B1524" t="s" s="17">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="C1524" s="18"/>
       <c r="D1524" s="19"/>
@@ -50171,7 +50168,7 @@
         <v>2137</v>
       </c>
       <c r="L1524" t="s" s="24">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="M1524" s="22"/>
       <c r="N1524" s="23"/>
@@ -50181,7 +50178,7 @@
         <v>11429</v>
       </c>
       <c r="B1525" t="s" s="17">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="C1525" s="18"/>
       <c r="D1525" s="19"/>
@@ -50195,7 +50192,7 @@
         <v>2137</v>
       </c>
       <c r="L1525" t="s" s="24">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="M1525" s="22"/>
       <c r="N1525" s="23"/>
@@ -50205,7 +50202,7 @@
         <v>11430</v>
       </c>
       <c r="B1526" t="s" s="17">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="C1526" s="18"/>
       <c r="D1526" s="19"/>
@@ -50219,7 +50216,7 @@
         <v>2137</v>
       </c>
       <c r="L1526" t="s" s="24">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="M1526" s="22"/>
       <c r="N1526" s="23"/>
@@ -50229,7 +50226,7 @@
         <v>11431</v>
       </c>
       <c r="B1527" t="s" s="17">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="C1527" s="18"/>
       <c r="D1527" s="19"/>
@@ -50243,7 +50240,7 @@
         <v>2137</v>
       </c>
       <c r="L1527" t="s" s="24">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="M1527" s="22"/>
       <c r="N1527" s="23"/>
@@ -50253,7 +50250,7 @@
         <v>11432</v>
       </c>
       <c r="B1528" t="s" s="17">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="C1528" s="18"/>
       <c r="D1528" s="19"/>
@@ -50267,7 +50264,7 @@
         <v>2137</v>
       </c>
       <c r="L1528" t="s" s="24">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="M1528" s="22"/>
       <c r="N1528" s="23"/>
@@ -50277,7 +50274,7 @@
         <v>11433</v>
       </c>
       <c r="B1529" t="s" s="17">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="C1529" s="18"/>
       <c r="D1529" s="19"/>
@@ -50291,7 +50288,7 @@
         <v>2137</v>
       </c>
       <c r="L1529" t="s" s="24">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="M1529" s="22"/>
       <c r="N1529" s="23"/>
@@ -50301,7 +50298,7 @@
         <v>11434</v>
       </c>
       <c r="B1530" t="s" s="17">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="C1530" s="18"/>
       <c r="D1530" s="19"/>
@@ -50315,7 +50312,7 @@
         <v>2137</v>
       </c>
       <c r="L1530" t="s" s="24">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="M1530" s="22"/>
       <c r="N1530" s="23"/>
@@ -50325,7 +50322,7 @@
         <v>11435</v>
       </c>
       <c r="B1531" t="s" s="17">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="C1531" s="18"/>
       <c r="D1531" s="19"/>
@@ -50339,7 +50336,7 @@
         <v>2137</v>
       </c>
       <c r="L1531" t="s" s="24">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="M1531" s="22"/>
       <c r="N1531" s="23"/>
@@ -50349,7 +50346,7 @@
         <v>11436</v>
       </c>
       <c r="B1532" t="s" s="17">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="C1532" s="18"/>
       <c r="D1532" s="19"/>
@@ -50363,7 +50360,7 @@
         <v>2137</v>
       </c>
       <c r="L1532" t="s" s="24">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="M1532" s="22"/>
       <c r="N1532" s="23"/>
@@ -50373,7 +50370,7 @@
         <v>11437</v>
       </c>
       <c r="B1533" t="s" s="17">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="C1533" s="18"/>
       <c r="D1533" s="19"/>
@@ -50387,7 +50384,7 @@
         <v>2137</v>
       </c>
       <c r="L1533" t="s" s="24">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="M1533" s="22"/>
       <c r="N1533" s="23"/>
@@ -50397,7 +50394,7 @@
         <v>11438</v>
       </c>
       <c r="B1534" t="s" s="17">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="C1534" s="18"/>
       <c r="D1534" s="19"/>
@@ -50411,7 +50408,7 @@
         <v>2137</v>
       </c>
       <c r="L1534" t="s" s="24">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="M1534" s="22"/>
       <c r="N1534" s="23"/>
@@ -50421,10 +50418,10 @@
         <v>11439</v>
       </c>
       <c r="B1535" t="s" s="17">
+        <v>3476</v>
+      </c>
+      <c r="C1535" t="s" s="25">
         <v>3477</v>
-      </c>
-      <c r="C1535" t="s" s="25">
-        <v>3478</v>
       </c>
       <c r="D1535" s="19"/>
       <c r="E1535" s="19"/>
@@ -50437,7 +50434,7 @@
         <v>2137</v>
       </c>
       <c r="L1535" t="s" s="24">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="M1535" s="22"/>
       <c r="N1535" s="23"/>
@@ -50447,7 +50444,7 @@
         <v>11440</v>
       </c>
       <c r="B1536" t="s" s="17">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="C1536" s="18"/>
       <c r="D1536" s="19"/>
@@ -50461,7 +50458,7 @@
         <v>2137</v>
       </c>
       <c r="L1536" t="s" s="24">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="M1536" s="22"/>
       <c r="N1536" s="23"/>
@@ -50471,7 +50468,7 @@
         <v>11441</v>
       </c>
       <c r="B1537" t="s" s="17">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="C1537" s="18"/>
       <c r="D1537" s="19"/>
@@ -50485,7 +50482,7 @@
         <v>2137</v>
       </c>
       <c r="L1537" t="s" s="24">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="M1537" s="22"/>
       <c r="N1537" s="23"/>
@@ -50495,7 +50492,7 @@
         <v>11442</v>
       </c>
       <c r="B1538" t="s" s="17">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="C1538" s="18"/>
       <c r="D1538" s="19"/>
@@ -50509,7 +50506,7 @@
         <v>2137</v>
       </c>
       <c r="L1538" t="s" s="24">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="M1538" s="22"/>
       <c r="N1538" s="23"/>
@@ -50519,7 +50516,7 @@
         <v>11443</v>
       </c>
       <c r="B1539" t="s" s="17">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="C1539" s="18"/>
       <c r="D1539" s="19"/>
@@ -50533,7 +50530,7 @@
         <v>2137</v>
       </c>
       <c r="L1539" t="s" s="24">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="M1539" s="22"/>
       <c r="N1539" s="23"/>
@@ -50543,7 +50540,7 @@
         <v>11444</v>
       </c>
       <c r="B1540" t="s" s="17">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="C1540" s="18"/>
       <c r="D1540" s="19"/>
@@ -50557,7 +50554,7 @@
         <v>2137</v>
       </c>
       <c r="L1540" t="s" s="24">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="M1540" s="22"/>
       <c r="N1540" s="23"/>
@@ -50567,7 +50564,7 @@
         <v>11445</v>
       </c>
       <c r="B1541" t="s" s="17">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="C1541" s="18"/>
       <c r="D1541" s="19"/>
@@ -50581,7 +50578,7 @@
         <v>2137</v>
       </c>
       <c r="L1541" t="s" s="24">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="M1541" s="22"/>
       <c r="N1541" s="23"/>
@@ -50591,10 +50588,10 @@
         <v>11446</v>
       </c>
       <c r="B1542" t="s" s="17">
+        <v>3491</v>
+      </c>
+      <c r="C1542" t="s" s="25">
         <v>3492</v>
-      </c>
-      <c r="C1542" t="s" s="25">
-        <v>3493</v>
       </c>
       <c r="D1542" s="19"/>
       <c r="E1542" s="19"/>
@@ -50607,7 +50604,7 @@
         <v>2137</v>
       </c>
       <c r="L1542" t="s" s="24">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="M1542" s="22"/>
       <c r="N1542" s="23"/>
@@ -50617,7 +50614,7 @@
         <v>11447</v>
       </c>
       <c r="B1543" t="s" s="17">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="C1543" s="18"/>
       <c r="D1543" s="19"/>
@@ -50631,7 +50628,7 @@
         <v>2137</v>
       </c>
       <c r="L1543" t="s" s="24">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="M1543" s="22"/>
       <c r="N1543" s="23"/>
@@ -50641,7 +50638,7 @@
         <v>11448</v>
       </c>
       <c r="B1544" t="s" s="17">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="C1544" s="18"/>
       <c r="D1544" s="19"/>
@@ -50655,7 +50652,7 @@
         <v>2137</v>
       </c>
       <c r="L1544" t="s" s="24">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="M1544" s="22"/>
       <c r="N1544" s="23"/>
@@ -50665,7 +50662,7 @@
         <v>11449</v>
       </c>
       <c r="B1545" t="s" s="17">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="C1545" s="18"/>
       <c r="D1545" s="19"/>
@@ -50679,7 +50676,7 @@
         <v>2137</v>
       </c>
       <c r="L1545" t="s" s="24">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="M1545" s="22"/>
       <c r="N1545" s="23"/>
@@ -50689,10 +50686,10 @@
         <v>11450</v>
       </c>
       <c r="B1546" t="s" s="17">
+        <v>3500</v>
+      </c>
+      <c r="C1546" t="s" s="25">
         <v>3501</v>
-      </c>
-      <c r="C1546" t="s" s="25">
-        <v>3502</v>
       </c>
       <c r="D1546" s="19"/>
       <c r="E1546" s="19"/>
@@ -50705,7 +50702,7 @@
         <v>2137</v>
       </c>
       <c r="L1546" t="s" s="24">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="M1546" s="22"/>
       <c r="N1546" s="23"/>
@@ -50715,10 +50712,10 @@
         <v>11451</v>
       </c>
       <c r="B1547" t="s" s="17">
+        <v>3503</v>
+      </c>
+      <c r="C1547" t="s" s="25">
         <v>3504</v>
-      </c>
-      <c r="C1547" t="s" s="25">
-        <v>3505</v>
       </c>
       <c r="D1547" s="19"/>
       <c r="E1547" s="19"/>
@@ -50730,7 +50727,7 @@
       <c r="I1547" s="19"/>
       <c r="J1547" s="19"/>
       <c r="K1547" t="s" s="24">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="L1547" s="21"/>
       <c r="M1547" s="22"/>
@@ -50741,7 +50738,7 @@
         <v>11452</v>
       </c>
       <c r="B1548" t="s" s="17">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="C1548" s="18"/>
       <c r="D1548" s="19"/>
@@ -50752,10 +50749,10 @@
       <c r="I1548" s="19"/>
       <c r="J1548" s="19"/>
       <c r="K1548" t="s" s="24">
+        <v>3507</v>
+      </c>
+      <c r="L1548" t="s" s="24">
         <v>3508</v>
-      </c>
-      <c r="L1548" t="s" s="24">
-        <v>3509</v>
       </c>
       <c r="M1548" s="22"/>
       <c r="N1548" s="23"/>
@@ -50765,7 +50762,7 @@
         <v>11453</v>
       </c>
       <c r="B1549" t="s" s="17">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="C1549" s="18"/>
       <c r="D1549" s="19"/>
@@ -50776,10 +50773,10 @@
       <c r="I1549" s="19"/>
       <c r="J1549" s="19"/>
       <c r="K1549" t="s" s="24">
+        <v>3507</v>
+      </c>
+      <c r="L1549" t="s" s="24">
         <v>3508</v>
-      </c>
-      <c r="L1549" t="s" s="24">
-        <v>3509</v>
       </c>
       <c r="M1549" s="22"/>
       <c r="N1549" s="23"/>
@@ -50789,10 +50786,10 @@
         <v>11454</v>
       </c>
       <c r="B1550" t="s" s="17">
+        <v>3510</v>
+      </c>
+      <c r="C1550" t="s" s="25">
         <v>3511</v>
-      </c>
-      <c r="C1550" t="s" s="25">
-        <v>3512</v>
       </c>
       <c r="D1550" s="19"/>
       <c r="E1550" s="19"/>
@@ -50802,10 +50799,10 @@
       <c r="I1550" s="19"/>
       <c r="J1550" s="19"/>
       <c r="K1550" t="s" s="24">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="L1550" t="s" s="24">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="M1550" s="22"/>
       <c r="N1550" s="23"/>
@@ -50815,10 +50812,10 @@
         <v>11455</v>
       </c>
       <c r="B1551" t="s" s="17">
+        <v>3513</v>
+      </c>
+      <c r="C1551" t="s" s="25">
         <v>3514</v>
-      </c>
-      <c r="C1551" t="s" s="25">
-        <v>3515</v>
       </c>
       <c r="D1551" s="19"/>
       <c r="E1551" s="19"/>
@@ -50828,13 +50825,13 @@
       <c r="I1551" s="19"/>
       <c r="J1551" s="19"/>
       <c r="K1551" t="s" s="24">
+        <v>3515</v>
+      </c>
+      <c r="L1551" t="s" s="24">
         <v>3516</v>
       </c>
-      <c r="L1551" t="s" s="24">
+      <c r="M1551" t="s" s="26">
         <v>3517</v>
-      </c>
-      <c r="M1551" t="s" s="26">
-        <v>3518</v>
       </c>
       <c r="N1551" s="23"/>
     </row>
@@ -50843,7 +50840,7 @@
         <v>11456</v>
       </c>
       <c r="B1552" t="s" s="17">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="C1552" s="18"/>
       <c r="D1552" s="19"/>
@@ -50854,10 +50851,10 @@
       <c r="I1552" s="19"/>
       <c r="J1552" s="19"/>
       <c r="K1552" t="s" s="24">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="L1552" t="s" s="24">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="M1552" s="22"/>
       <c r="N1552" s="23"/>
@@ -50867,10 +50864,10 @@
         <v>11457</v>
       </c>
       <c r="B1553" t="s" s="17">
+        <v>3520</v>
+      </c>
+      <c r="C1553" t="s" s="25">
         <v>3521</v>
-      </c>
-      <c r="C1553" t="s" s="25">
-        <v>3522</v>
       </c>
       <c r="D1553" s="19"/>
       <c r="E1553" s="19"/>
@@ -50880,13 +50877,13 @@
       <c r="I1553" s="19"/>
       <c r="J1553" s="19"/>
       <c r="K1553" t="s" s="24">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="L1553" t="s" s="24">
+        <v>3522</v>
+      </c>
+      <c r="M1553" t="s" s="26">
         <v>3523</v>
-      </c>
-      <c r="M1553" t="s" s="26">
-        <v>3524</v>
       </c>
       <c r="N1553" s="23"/>
     </row>
@@ -50895,10 +50892,10 @@
         <v>21457</v>
       </c>
       <c r="B1554" t="s" s="17">
+        <v>3524</v>
+      </c>
+      <c r="C1554" t="s" s="25">
         <v>3525</v>
-      </c>
-      <c r="C1554" t="s" s="25">
-        <v>3526</v>
       </c>
       <c r="D1554" s="19"/>
       <c r="E1554" s="19"/>
@@ -50919,7 +50916,7 @@
         <v>11458</v>
       </c>
       <c r="B1555" t="s" s="17">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="C1555" s="18"/>
       <c r="D1555" s="19"/>
@@ -50930,7 +50927,7 @@
       <c r="I1555" s="19"/>
       <c r="J1555" s="19"/>
       <c r="K1555" t="s" s="24">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="L1555" s="21"/>
       <c r="M1555" s="22"/>
@@ -50941,7 +50938,7 @@
         <v>11459</v>
       </c>
       <c r="B1556" t="s" s="17">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="C1556" s="18"/>
       <c r="D1556" s="19"/>
@@ -50952,7 +50949,7 @@
       <c r="I1556" s="19"/>
       <c r="J1556" s="19"/>
       <c r="K1556" t="s" s="24">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="L1556" s="21"/>
       <c r="M1556" s="22"/>
@@ -50963,7 +50960,7 @@
         <v>11460</v>
       </c>
       <c r="B1557" t="s" s="17">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="C1557" s="18"/>
       <c r="D1557" s="19"/>
@@ -50974,10 +50971,10 @@
       <c r="I1557" s="19"/>
       <c r="J1557" s="19"/>
       <c r="K1557" t="s" s="24">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="L1557" t="s" s="24">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="M1557" s="22"/>
       <c r="N1557" s="23"/>
@@ -50987,7 +50984,7 @@
         <v>11461</v>
       </c>
       <c r="B1558" t="s" s="17">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="C1558" s="18"/>
       <c r="D1558" s="19"/>
@@ -50998,10 +50995,10 @@
       <c r="I1558" s="19"/>
       <c r="J1558" s="19"/>
       <c r="K1558" t="s" s="24">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="L1558" t="s" s="24">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="M1558" s="22"/>
       <c r="N1558" s="23"/>
@@ -51011,7 +51008,7 @@
         <v>11462</v>
       </c>
       <c r="B1559" t="s" s="17">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="C1559" s="18"/>
       <c r="D1559" s="19"/>
@@ -51022,10 +51019,10 @@
       <c r="I1559" s="19"/>
       <c r="J1559" s="19"/>
       <c r="K1559" t="s" s="24">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="L1559" t="s" s="24">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="M1559" s="22"/>
       <c r="N1559" s="23"/>
@@ -51035,7 +51032,7 @@
         <v>11463</v>
       </c>
       <c r="B1560" t="s" s="17">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="C1560" s="18"/>
       <c r="D1560" s="19"/>
@@ -51046,10 +51043,10 @@
       <c r="I1560" s="19"/>
       <c r="J1560" s="19"/>
       <c r="K1560" t="s" s="24">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="L1560" t="s" s="24">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="M1560" s="22"/>
       <c r="N1560" s="23"/>
@@ -51059,7 +51056,7 @@
         <v>11464</v>
       </c>
       <c r="B1561" t="s" s="17">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="C1561" s="18"/>
       <c r="D1561" s="19"/>
@@ -51070,10 +51067,10 @@
       <c r="I1561" s="19"/>
       <c r="J1561" s="19"/>
       <c r="K1561" t="s" s="24">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="L1561" t="s" s="24">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="M1561" s="22"/>
       <c r="N1561" s="23"/>
@@ -51083,10 +51080,10 @@
         <v>11465</v>
       </c>
       <c r="B1562" t="s" s="17">
+        <v>3538</v>
+      </c>
+      <c r="C1562" t="s" s="25">
         <v>3539</v>
-      </c>
-      <c r="C1562" t="s" s="25">
-        <v>3540</v>
       </c>
       <c r="D1562" s="19"/>
       <c r="E1562" s="19"/>
@@ -51098,13 +51095,13 @@
       <c r="I1562" s="19"/>
       <c r="J1562" s="19"/>
       <c r="K1562" t="s" s="24">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="L1562" t="s" s="24">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="M1562" t="s" s="26">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="N1562" s="23"/>
     </row>
@@ -51113,10 +51110,10 @@
         <v>11466</v>
       </c>
       <c r="B1563" t="s" s="17">
+        <v>3541</v>
+      </c>
+      <c r="C1563" t="s" s="25">
         <v>3542</v>
-      </c>
-      <c r="C1563" t="s" s="25">
-        <v>3543</v>
       </c>
       <c r="D1563" s="19"/>
       <c r="E1563" s="19"/>
@@ -51126,13 +51123,13 @@
       <c r="I1563" s="19"/>
       <c r="J1563" s="19"/>
       <c r="K1563" t="s" s="24">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="L1563" t="s" s="24">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="M1563" t="s" s="26">
-        <v>3112</v>
+        <v>1010</v>
       </c>
       <c r="N1563" s="23"/>
     </row>
@@ -51141,10 +51138,10 @@
         <v>11467</v>
       </c>
       <c r="B1564" t="s" s="17">
+        <v>3544</v>
+      </c>
+      <c r="C1564" t="s" s="25">
         <v>3545</v>
-      </c>
-      <c r="C1564" t="s" s="25">
-        <v>3546</v>
       </c>
       <c r="D1564" s="19"/>
       <c r="E1564" s="19"/>
@@ -51154,13 +51151,13 @@
       <c r="I1564" s="19"/>
       <c r="J1564" s="19"/>
       <c r="K1564" t="s" s="24">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="L1564" t="s" s="24">
+        <v>3546</v>
+      </c>
+      <c r="M1564" t="s" s="26">
         <v>3547</v>
-      </c>
-      <c r="M1564" t="s" s="26">
-        <v>3548</v>
       </c>
       <c r="N1564" s="23"/>
     </row>
